--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13440"/>
+    <workbookView windowWidth="21240" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>计算机相关课程</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>实验楼（付费提升</t>
     </r>
     <r>
@@ -193,6 +199,96 @@
   <si>
     <t>概率论与数理统计</t>
   </si>
+  <si>
+    <t>靠谱的学习</t>
+  </si>
+  <si>
+    <t>vue</t>
+  </si>
+  <si>
+    <t>易语言</t>
+  </si>
+  <si>
+    <t>dedecms</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>thinkphp</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>jquery</t>
+  </si>
+  <si>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>web api</t>
+  </si>
+  <si>
+    <t>css高级(flex)</t>
+  </si>
+  <si>
+    <t>响应式</t>
+  </si>
+  <si>
+    <t>html5</t>
+  </si>
+  <si>
+    <t>js高级</t>
+  </si>
+  <si>
+    <t>es6</t>
+  </si>
+  <si>
+    <t>webpack</t>
+  </si>
+  <si>
+    <t>nodejs</t>
+  </si>
+  <si>
+    <t>electron</t>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
+    <t>eCharts</t>
+  </si>
+  <si>
+    <t>three.js</t>
+  </si>
+  <si>
+    <t>typescript</t>
+  </si>
+  <si>
+    <t>小程序开发</t>
+  </si>
+  <si>
+    <t>公众号开发</t>
+  </si>
+  <si>
+    <t>服务器配置（伪静态）</t>
+  </si>
+  <si>
+    <t>php高级</t>
+  </si>
+  <si>
+    <t>seo</t>
+  </si>
+  <si>
+    <t>cdn</t>
+  </si>
 </sst>
 </file>
 
@@ -200,9 +296,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -275,7 +371,74 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,9 +459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,53 +469,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,15 +491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,21 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -421,7 +517,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,145 +568,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,30 +723,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -663,6 +741,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -674,26 +761,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,155 +788,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -888,6 +990,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1571,10 +1674,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1752,6 +1855,197 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>计算机相关课程</t>
   </si>
@@ -206,6 +206,9 @@
     <t>vue</t>
   </si>
   <si>
+    <t>JS post   app协议定制 出部分写好的协议  引流协议  拼多多协议  快手评论  星巴克协议  出微信授权APP的TK</t>
+  </si>
+  <si>
     <t>易语言</t>
   </si>
   <si>
@@ -288,6 +291,9 @@
   </si>
   <si>
     <t>cdn</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
   </si>
 </sst>
 </file>
@@ -295,9 +301,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -372,6 +378,103 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,22 +488,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,14 +504,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -430,82 +512,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -574,145 +580,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,45 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,6 +776,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -823,16 +805,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,130 +850,130 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,6 +1392,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>198755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="411fb25a9aa4342b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2289175" y="5045710"/>
+          <a:ext cx="3228975" cy="4163695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1674,10 +1718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D64"/>
+  <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1860,44 +1904,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:3">
       <c r="B23" s="18" t="s">
         <v>43</v>
       </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -1907,144 +1954,113 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="18"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="18"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="18"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="18"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="18"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="18"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="18"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="18"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="18"/>
+      <c r="B53" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12375"/>
+    <workbookView windowWidth="18600" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>计算机相关课程</t>
   </si>
@@ -209,7 +209,7 @@
     <t>JS post   app协议定制 出部分写好的协议  引流协议  拼多多协议  快手评论  星巴克协议  出微信授权APP的TK</t>
   </si>
   <si>
-    <t>易语言</t>
+    <t>抓包</t>
   </si>
   <si>
     <t>dedecms</t>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>http</t>
+  </si>
+  <si>
+    <t>mysql高级</t>
   </si>
   <si>
     <t>git</t>
@@ -301,9 +304,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -375,6 +378,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -384,7 +408,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,16 +436,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,26 +468,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,28 +492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -496,25 +500,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -522,6 +520,11 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -580,145 +583,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,35 +746,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,8 +783,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,6 +803,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -838,7 +841,7 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,13 +853,13 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,115 +868,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1718,10 +1721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D53"/>
+  <dimension ref="B2:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1949,12 +1952,12 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="18" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="18" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -2060,6 +2063,11 @@
     <row r="53" spans="2:2">
       <c r="B53" s="18" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
